--- a/app/templates/template_纵向.xlsx
+++ b/app/templates/template_纵向.xlsx
@@ -124,7 +124,7 @@
 （万元）</t>
   </si>
   <si>
-    <t>{{project.project_code}}</t>
+    <t>{% for project in projects %}{{project.project_code}}</t>
   </si>
   <si>
     <t>{{project.project_name}}</t>
@@ -145,7 +145,7 @@
     <t>{{project.money}}</t>
   </si>
   <si>
-    <t>{{project.system_money}}</t>
+    <t>{{project.system_money}}{% endfor %}</t>
   </si>
   <si>
     <t>合  计</t>
@@ -944,7 +944,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1016,25 +1016,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1394,7 +1403,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1562,7 +1571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:11">
+    <row r="8" ht="56" spans="1:11">
       <c r="A8" s="30" t="s">
         <v>31</v>
       </c>
@@ -1596,18 +1605,18 @@
         <v>39</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="I2:K2"/>
@@ -1621,7 +1630,8 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="H3:I4"/>
     <mergeCell ref="J3:K4"/>
   </mergeCells>
